--- a/template_master_file/template_upload_order_mst.xlsx
+++ b/template_master_file/template_upload_order_mst.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Billing All\Upload Order MRD VMI\ABT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C5BBD90-ED39-4565-9A6F-44510AAEFE07}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{91AB583E-A9DE-4380-9591-633937F44191}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F01FDA4C-D8D1-4E82-83A0-7BDE0EDFE6E3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{F01FDA4C-D8D1-4E82-83A0-7BDE0EDFE6E3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="5" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="661" uniqueCount="98">
   <si>
     <t>FG Code Set ABT</t>
   </si>
@@ -59,9 +59,6 @@
     <t>Normal Order</t>
   </si>
   <si>
-    <t>BAA23DC010R</t>
-  </si>
-  <si>
     <t>TSESA</t>
   </si>
   <si>
@@ -71,9 +68,6 @@
     <t>Set</t>
   </si>
   <si>
-    <t>PMM03CC010X</t>
-  </si>
-  <si>
     <t>Order Qty.</t>
   </si>
   <si>
@@ -89,44 +83,269 @@
     <t>Delivery Date</t>
   </si>
   <si>
-    <t>IMC010-EXPORT-SNP120-A</t>
-  </si>
-  <si>
-    <t>RSC-IMC010-A</t>
-  </si>
-  <si>
-    <t>PAD-IMC010-A</t>
-  </si>
-  <si>
-    <t>TSESA-AB3119466BA-A</t>
-  </si>
-  <si>
-    <t>TSESA-AB312D259AA-A</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>2020-10-21</t>
-  </si>
-  <si>
-    <t>MRD, MDS</t>
+    <t>TSESA-MRD211018001</t>
+  </si>
+  <si>
+    <t>IMC070-EXPORT-SNP60-A</t>
+  </si>
+  <si>
+    <t>PAD-IMC070</t>
+  </si>
+  <si>
+    <t>PMM03CC070X</t>
+  </si>
+  <si>
+    <t>TSESA-AB3114A301AC-A</t>
+  </si>
+  <si>
+    <t>2021-10-20</t>
+  </si>
+  <si>
+    <t>RSC-IMC070</t>
+  </si>
+  <si>
+    <t>BAA23DC070R</t>
+  </si>
+  <si>
+    <t>IMC070-EXPORT-SNP100-A</t>
+  </si>
+  <si>
+    <t>TSESA-AB312L455AE-A</t>
+  </si>
+  <si>
+    <t>TSESA-AB312L456AE-A</t>
+  </si>
+  <si>
+    <t>IMC070-EXPORT-SNP12-A</t>
+  </si>
+  <si>
+    <t>TSESA-AB315K583AC-A</t>
+  </si>
+  <si>
+    <t>TSESA-AB31J00145AF-A</t>
+  </si>
+  <si>
+    <t>IMC070-EXPORT-SNP80-A</t>
+  </si>
+  <si>
+    <t>TSESA-EB3B4161544AC-A</t>
+  </si>
+  <si>
+    <t>TSESA-AB3921025C01AA-A</t>
+  </si>
+  <si>
+    <t>IMC090-EXPORT-SNP20-A</t>
+  </si>
+  <si>
+    <t>RSC-IMC090</t>
+  </si>
+  <si>
+    <t>BAA23DC090R</t>
+  </si>
+  <si>
+    <t>TSESA-AB319054AD-A</t>
+  </si>
+  <si>
+    <t>IMC090-EXPORT-SNP30-A</t>
+  </si>
+  <si>
+    <t>TSESA-AB319092AE-A</t>
+  </si>
+  <si>
+    <t>IMC090-EXPORT-SNP60-A</t>
+  </si>
+  <si>
+    <t>PAD-IMC090</t>
+  </si>
+  <si>
+    <t>PMM03CC0110X</t>
+  </si>
+  <si>
+    <t>TSESA-AB3917A793AC-A</t>
+  </si>
+  <si>
+    <t>TSESA-AB3917A794AC-A</t>
+  </si>
+  <si>
+    <t>IMC090-EXPORT-SNP80-A</t>
+  </si>
+  <si>
+    <t>TSESA-AB3919H357AA-A</t>
+  </si>
+  <si>
+    <t>IMC090-EXPORT-SNP36-A</t>
+  </si>
+  <si>
+    <t>TSESA-AB3926600A16AB-A</t>
+  </si>
+  <si>
+    <t>TSESA-AB3926600A17AB-A</t>
+  </si>
+  <si>
+    <t>IMC090-EXPORT-SNP50-A</t>
+  </si>
+  <si>
+    <t>TSESA-EB3B41312A48AE-A</t>
+  </si>
+  <si>
+    <t>TSESA-EB3B41312A49AE-A</t>
+  </si>
+  <si>
+    <t>TSESA-JB3C3D072BA-A</t>
+  </si>
+  <si>
+    <t>IMC100-EXPORT-SNP17-A</t>
+  </si>
+  <si>
+    <t>PAD-IMC100</t>
+  </si>
+  <si>
+    <t>TSESA-AB312L219CD-A</t>
+  </si>
+  <si>
+    <t>RSC-IMC100</t>
+  </si>
+  <si>
+    <t>BAA23HG0100R</t>
+  </si>
+  <si>
+    <t>IMC100-EXPORT-SNP20-B</t>
+  </si>
+  <si>
+    <t>TSESA-AB319054BD-A</t>
+  </si>
+  <si>
+    <t>IMC100-EXPORT-SNP30-A</t>
+  </si>
+  <si>
+    <t>TSESA-AB319092BE-A</t>
+  </si>
+  <si>
+    <t>IMC100-EXPORT-SNP16-A</t>
+  </si>
+  <si>
+    <t>TSESA-EB3C2C304AB-A</t>
+  </si>
+  <si>
+    <t>IMC130-EXPORT-SNP18-A</t>
+  </si>
+  <si>
+    <t>PAD-IMC130</t>
+  </si>
+  <si>
+    <t>PMM03CC130X</t>
+  </si>
+  <si>
+    <t>TSESA-AB3926113B18BA-A</t>
+  </si>
+  <si>
+    <t>RSC-IMC130</t>
+  </si>
+  <si>
+    <t>BAA23DC130R</t>
+  </si>
+  <si>
+    <t>TSESA-AB3926113B19BA-A</t>
+  </si>
+  <si>
+    <t>IMC030-EXPORT-SNP140-A</t>
+  </si>
+  <si>
+    <t>PAD-IMC030</t>
+  </si>
+  <si>
+    <t>PMM03CC030X</t>
+  </si>
+  <si>
+    <t>TSESA-W717077S437-A</t>
+  </si>
+  <si>
+    <t>2021-10-18</t>
+  </si>
+  <si>
+    <t>IMC160-FOT-SNP3-A</t>
+  </si>
+  <si>
+    <t>RSC-IMC160-A</t>
+  </si>
+  <si>
+    <t>BAA23DC160R</t>
+  </si>
+  <si>
+    <t>FOT</t>
+  </si>
+  <si>
+    <t>TSESA-DC8K50260(FOT)-A</t>
+  </si>
+  <si>
+    <t>IMC030-EXPORT-SNP125-A</t>
+  </si>
+  <si>
+    <t>TSESA-AB312073CC-A</t>
+  </si>
+  <si>
+    <t>RSC-IMC030</t>
+  </si>
+  <si>
+    <t>BAA23DC030R</t>
+  </si>
+  <si>
+    <t>IMC030-EXPORT-SNP120-A</t>
+  </si>
+  <si>
+    <t>TSESA-AB312B403CC-A</t>
+  </si>
+  <si>
+    <t>IMC030-EXPORT-SNP780-A</t>
+  </si>
+  <si>
+    <t>TSESA-AB3145915AA-A</t>
+  </si>
+  <si>
+    <t>IMC030-EXPORT-SNP34-A</t>
+  </si>
+  <si>
+    <t>TSESA-AB315627AB-A</t>
+  </si>
+  <si>
+    <t>IMC030-EXPORT-SNP50-A</t>
+  </si>
+  <si>
+    <t>TSESA-AB3926612W70AB-A</t>
+  </si>
+  <si>
+    <t>IMC030-FOT-SNP1-A</t>
+  </si>
+  <si>
+    <t>TSESA-EB3B17754BA-A</t>
+  </si>
+  <si>
+    <t>IMC030-EXPORT-SNP30-A</t>
+  </si>
+  <si>
+    <t>TSESA-EB3T14W163AB-A</t>
+  </si>
+  <si>
+    <t>TSESA-MB3C2100145AA-A</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -173,10 +392,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -491,30 +713,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBCF0843-744A-4315-AE2C-109B8E9A8DFB}">
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:L60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="23.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="26.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="33.140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="24.5703125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>5</v>
       </c>
@@ -537,133 +759,2261 @@
         <v>4</v>
       </c>
       <c r="H1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="L1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="C2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="1">
+        <v>6</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="1">
+        <v>3</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" s="1">
+        <v>18</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" s="1">
+        <v>9</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6" s="1">
+        <v>6</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H7" s="1">
+        <v>9</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H2" s="1" t="s">
+      <c r="E8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H8" s="1">
+        <v>60</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="E9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H9" s="1">
+        <v>30</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H10" s="1">
+        <v>8</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H11" s="1">
+        <v>4</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H12" s="1">
+        <v>2</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H13" s="1">
+        <v>1</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H14" s="1">
+        <v>12</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H15" s="1">
+        <v>6</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H16" s="1">
+        <v>5</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H17" s="1">
+        <v>3</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H18" s="1">
+        <v>6</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H19" s="1">
+        <v>3</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H20" s="1">
+        <v>16</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H21" s="1">
+        <v>3</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H22" s="1">
+        <v>6</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H23" s="1">
+        <v>3</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H24" s="1">
+        <v>16</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H25" s="1">
+        <v>8</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H26" s="1">
+        <v>16</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H27" s="1">
+        <v>8</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H28" s="1">
+        <v>22</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H29" s="1">
         <v>11</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L2" s="1" t="s">
+      <c r="I29" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H30" s="1">
+        <v>22</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H31" s="1">
+        <v>11</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H32" s="1">
         <v>26</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="I32" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L32" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H33" s="1">
+        <v>13</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L33" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H34" s="1">
+        <v>76</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L34" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H35" s="1">
+        <v>38</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L35" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H36" s="1">
+        <v>8</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L36" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H37" s="1">
+        <v>4</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L37" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H38" s="1">
+        <v>6</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K38" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L38" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H39" s="1">
+        <v>3</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K39" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L39" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H40" s="1">
+        <v>15</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K40" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L40" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H41" s="1">
+        <v>24</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K41" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L41" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H42" s="1">
+        <v>12</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K42" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L42" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H43" s="1">
+        <v>24</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K43" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L43" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H44" s="1">
+        <v>12</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K44" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L44" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H45" s="1">
+        <v>12</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K45" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L45" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H46" s="1">
+        <v>160</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K46" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L46" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="H47" s="1">
+        <v>2</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K47" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L47" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="H48" s="1">
+        <v>1</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J48" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K48" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L48" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="H49" s="1">
+        <v>2</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J49" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K49" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L49" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="H50" s="1">
+        <v>1</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J50" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K50" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L50" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H51" s="1">
+        <v>2</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J51" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K51" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L51" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H52" s="1">
+        <v>1</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J52" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K52" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L52" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="H53" s="1">
         <v>20</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>26</v>
+      <c r="I53" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J53" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K53" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L53" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="H54" s="1">
+        <v>10</v>
+      </c>
+      <c r="I54" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J54" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K54" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L54" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H55" s="1">
+        <v>32</v>
+      </c>
+      <c r="I55" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J55" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K55" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L55" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H56" s="1">
+        <v>16</v>
+      </c>
+      <c r="I56" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J56" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K56" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L56" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="H57" s="1">
+        <v>14</v>
+      </c>
+      <c r="I57" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J57" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K57" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L57" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="H58" s="1">
+        <v>6</v>
+      </c>
+      <c r="I58" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J58" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K58" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L58" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="H59" s="1">
+        <v>3</v>
+      </c>
+      <c r="I59" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J59" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K59" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L59" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="H60" s="1">
+        <v>64</v>
+      </c>
+      <c r="I60" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J60" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K60" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L60" s="1" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
